--- a/tests_excel.xlsx
+++ b/tests_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danicagarcia/Documents/GitHub/Plate-Character-Recognition-with-Canny-Edge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08516E97-6C7C-9B49-9262-2C527E16C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86CC921-7536-E44B-B36A-DAE1714968F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="5" xr2:uid="{863AE985-0E03-41B7-9EE9-6FF87D3C1062}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="3573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="3574">
   <si>
     <t>frame_nmr</t>
   </si>
@@ -10801,13 +10801,16 @@
   </si>
   <si>
     <t>all predictions</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10817,6 +10820,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10842,8 +10852,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31434,8 +31445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3682F487-05A2-43E5-AC32-5E94BDAFBF3D}">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31495,6 +31506,9 @@
       <c r="N1" t="s">
         <v>3570</v>
       </c>
+      <c r="P1" t="s">
+        <v>3573</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -31650,6 +31664,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>7.0055829296634273E-2</v>
       </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -31680,6 +31703,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.14211282352530963</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -31710,6 +31742,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.19474709673039264</v>
       </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -31740,6 +31781,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>1.4496107545558712E-2</v>
       </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -31770,6 +31820,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.16720095254946601</v>
       </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -31800,6 +31859,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.13518254748057879</v>
       </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -31830,6 +31898,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.2258191159252621</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -31860,6 +31937,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.18278220040273796</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -31890,6 +31976,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.2200624874403814</v>
       </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>13</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.15379999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -31920,6 +32015,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.15346142049363612</v>
       </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>17</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -31950,6 +32054,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.4164755325896472</v>
       </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -31980,6 +32093,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>4.7009628373040568E-2</v>
       </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -32010,6 +32132,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.32891854349321287</v>
       </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -32040,6 +32171,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.43300450076116492</v>
       </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -32074,7 +32214,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -32109,6 +32249,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>6.4396383767511473E-2</v>
       </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -32139,6 +32288,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.46808959921727333</v>
       </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -32169,6 +32327,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.31690054729727152</v>
       </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>0.42880000000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -32199,6 +32366,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.41822474161487189</v>
       </c>
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>15</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -32229,6 +32405,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.25149284666890609</v>
       </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -32259,13 +32444,13 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.21740037049314115</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
+      <c r="M25" s="1">
+        <v>7</v>
+      </c>
+      <c r="N25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -32338,13 +32523,13 @@
         <v>9.2822436471452399E-2</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -32376,13 +32561,13 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.1143216511228521</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28">
+      <c r="M28" s="1">
+        <v>3</v>
+      </c>
+      <c r="N28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -32415,6 +32600,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.37256200335972339</v>
       </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -32449,7 +32643,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -32484,6 +32678,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>4.7195485302620764E-2</v>
       </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -32514,6 +32717,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.30297650075028953</v>
       </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -32544,6 +32756,15 @@
         <f>AVERAGEIF(Table_test4k_60_Canny_updated[car_id],Table_test4k_60_Canny_updated[[#This Row],[carID]],Table_test4k_60_Canny_updated[license_number_score])</f>
         <v>0.27625044495547074</v>
       </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>9</v>
+      </c>
+      <c r="N33">
+        <v>0.1111</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -32575,13 +32796,13 @@
         <v>0.33314868893066157</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -32813,15 +33034,6 @@
       <c r="G44">
         <v>5.648436450495644E-2</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>6</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -32915,7 +33127,7 @@
         <v>3.8662412879455772E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2619</v>
       </c>
@@ -32938,7 +33150,7 @@
         <v>0.36768407499087008</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2625</v>
       </c>
@@ -32961,7 +33173,7 @@
         <v>0.25685535510210544</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2629</v>
       </c>
@@ -32983,17 +33195,8 @@
       <c r="G51">
         <v>6.4254353142012569E-2</v>
       </c>
-      <c r="L51">
-        <v>2</v>
-      </c>
-      <c r="M51">
-        <v>13</v>
-      </c>
-      <c r="N51">
-        <v>0.15379999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2648</v>
       </c>
@@ -33016,7 +33219,7 @@
         <v>0.15588219090496455</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2654</v>
       </c>
@@ -33039,7 +33242,7 @@
         <v>6.4238685901021039E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2665</v>
       </c>
@@ -33062,7 +33265,7 @@
         <v>0.19282113910351922</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2666</v>
       </c>
@@ -33085,7 +33288,7 @@
         <v>4.5812190597424758E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2672</v>
       </c>
@@ -33108,7 +33311,7 @@
         <v>3.7288672027874649E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2675</v>
       </c>
@@ -33131,7 +33334,7 @@
         <v>0.13820759308427444</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2677</v>
       </c>
@@ -33154,7 +33357,7 @@
         <v>0.10309288942507873</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2689</v>
       </c>
@@ -33177,7 +33380,7 @@
         <v>0.15649551837573328</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2690</v>
       </c>
@@ -33200,7 +33403,7 @@
         <v>0.56712620598339714</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2691</v>
       </c>
@@ -33223,7 +33426,7 @@
         <v>0.45845233335223651</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2698</v>
       </c>
@@ -33246,7 +33449,7 @@
         <v>0.45824790381461844</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2705</v>
       </c>
@@ -33269,7 +33472,7 @@
         <v>0.41889266101280292</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2752</v>
       </c>
@@ -33290,15 +33493,6 @@
       </c>
       <c r="G64">
         <v>4.492413387127487E-2</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>17</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -33669,7 +33863,7 @@
         <v>0.2097963740368963</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2854</v>
       </c>
@@ -33691,17 +33885,8 @@
       <c r="G81">
         <v>0.46415820050226642</v>
       </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>4</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2866</v>
       </c>
@@ -33724,7 +33909,7 @@
         <v>0.73172553939825147</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2867</v>
       </c>
@@ -33747,7 +33932,7 @@
         <v>0.2383061407783848</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2874</v>
       </c>
@@ -33770,7 +33955,7 @@
         <v>0.10898936543603366</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2890</v>
       </c>
@@ -33793,7 +33978,7 @@
         <v>0.53919841683329939</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2950</v>
       </c>
@@ -33815,17 +34000,8 @@
       <c r="G86">
         <v>3.5024563359135667E-2</v>
       </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>2</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3041</v>
       </c>
@@ -33848,7 +34024,7 @@
         <v>5.8994693386945476E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3112</v>
       </c>
@@ -33870,17 +34046,8 @@
       <c r="G88">
         <v>0.28091000251262771</v>
       </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3115</v>
       </c>
@@ -33903,7 +34070,7 @@
         <v>0.37692708447379802</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3140</v>
       </c>
@@ -33925,17 +34092,8 @@
       <c r="G90">
         <v>0.46167007123243686</v>
       </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>10</v>
-      </c>
-      <c r="N90">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3143</v>
       </c>
@@ -33958,7 +34116,7 @@
         <v>0.28008765814352549</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3149</v>
       </c>
@@ -33981,7 +34139,7 @@
         <v>0.25431250770622454</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3152</v>
       </c>
@@ -34004,7 +34162,7 @@
         <v>0.39042317061548998</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3154</v>
       </c>
@@ -34027,7 +34185,7 @@
         <v>0.27164108264480807</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3159</v>
       </c>
@@ -34050,7 +34208,7 @@
         <v>0.64707860176949694</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3161</v>
       </c>
@@ -34073,7 +34231,7 @@
         <v>0.3732585546002769</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3165</v>
       </c>
@@ -34096,7 +34254,7 @@
         <v>0.78556435937706037</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3168</v>
       </c>
@@ -34116,7 +34274,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3214</v>
       </c>
@@ -34138,17 +34296,8 @@
       <c r="G99">
         <v>0.23849409984127801</v>
       </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>5</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3218</v>
       </c>
@@ -34171,7 +34320,7 @@
         <v>0.22114349918138515</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3226</v>
       </c>
@@ -34194,7 +34343,7 @@
         <v>0.22607906810480932</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3230</v>
       </c>
@@ -34217,7 +34366,7 @@
         <v>0.21524621337353997</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3237</v>
       </c>
@@ -34240,7 +34389,7 @@
         <v>0.30363751347139128</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3239</v>
       </c>
@@ -34263,7 +34412,7 @@
         <v>0.49570063914317669</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3327</v>
       </c>
@@ -34285,17 +34434,8 @@
       <c r="G105">
         <v>0.11659264759248308</v>
       </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>2</v>
-      </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3337</v>
       </c>
@@ -34318,7 +34458,7 @@
         <v>1.2200119942539875E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3373</v>
       </c>
@@ -34340,17 +34480,8 @@
       <c r="G107">
         <v>0.62854580130008098</v>
       </c>
-      <c r="L107">
-        <v>3</v>
-      </c>
-      <c r="M107">
-        <v>8</v>
-      </c>
-      <c r="N107">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3375</v>
       </c>
@@ -34373,7 +34504,7 @@
         <v>0.20076665159862112</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3395</v>
       </c>
@@ -34396,7 +34527,7 @@
         <v>0.40618874774793462</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3397</v>
       </c>
@@ -34419,7 +34550,7 @@
         <v>0.5050772888627838</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3403</v>
       </c>
@@ -34442,7 +34573,7 @@
         <v>0.45622153128458148</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3409</v>
       </c>
@@ -34465,7 +34596,7 @@
         <v>0.34801950584948615</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3412</v>
       </c>
@@ -34488,7 +34619,7 @@
         <v>0.58098278275983573</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3422</v>
       </c>
@@ -34511,7 +34642,7 @@
         <v>0.61891448433486274</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3458</v>
       </c>
@@ -34533,17 +34664,8 @@
       <c r="G115">
         <v>0.16396632378510342</v>
       </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
-        <v>7</v>
-      </c>
-      <c r="N115">
-        <v>0.42880000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3464</v>
       </c>
@@ -34566,7 +34688,7 @@
         <v>0.15554361273674033</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3484</v>
       </c>
@@ -34589,7 +34711,7 @@
         <v>0.30272746122045791</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3489</v>
       </c>
@@ -34612,7 +34734,7 @@
         <v>0.13156436691906795</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3506</v>
       </c>
@@ -34635,7 +34757,7 @@
         <v>0.80096423298758102</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3511</v>
       </c>
@@ -34658,7 +34780,7 @@
         <v>0.27972179402989783</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3522</v>
       </c>
@@ -34681,7 +34803,7 @@
         <v>0.38381603940205206</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3844</v>
       </c>
@@ -34703,17 +34825,8 @@
       <c r="G122">
         <v>9.3745096983480034E-2</v>
       </c>
-      <c r="L122">
-        <v>3</v>
-      </c>
-      <c r="M122">
-        <v>15</v>
-      </c>
-      <c r="N122">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3861</v>
       </c>
@@ -34736,7 +34849,7 @@
         <v>0.35369253389850819</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3865</v>
       </c>
@@ -34759,7 +34872,7 @@
         <v>0.21945772423271215</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3870</v>
       </c>
@@ -34782,7 +34895,7 @@
         <v>0.52013429728788618</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3873</v>
       </c>
@@ -34805,7 +34918,7 @@
         <v>0.6829480130010086</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3877</v>
       </c>
@@ -34828,7 +34941,7 @@
         <v>0.15259452176837013</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3878</v>
       </c>
@@ -34851,7 +34964,7 @@
         <v>0.41754145015545152</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3881</v>
       </c>
@@ -34874,7 +34987,7 @@
         <v>0.47373496289707501</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3898</v>
       </c>
@@ -34897,7 +35010,7 @@
         <v>0.2905609566673561</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3899</v>
       </c>
@@ -34920,7 +35033,7 @@
         <v>0.42801357945277618</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3905</v>
       </c>
@@ -34943,7 +35056,7 @@
         <v>0.49631667671701535</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3907</v>
       </c>
@@ -34966,7 +35079,7 @@
         <v>0.38565774336032477</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3910</v>
       </c>
@@ -34989,7 +35102,7 @@
         <v>0.5842835759558187</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3912</v>
       </c>
@@ -35012,7 +35125,7 @@
         <v>0.70123554665532817</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3921</v>
       </c>
@@ -35035,7 +35148,7 @@
         <v>0.47345444518996777</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3934</v>
       </c>
@@ -35057,17 +35170,8 @@
       <c r="G137">
         <v>6.7985485849482968E-2</v>
       </c>
-      <c r="L137">
-        <v>1</v>
-      </c>
-      <c r="M137">
-        <v>4</v>
-      </c>
-      <c r="N137">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3965</v>
       </c>
@@ -35089,17 +35193,8 @@
       <c r="G138">
         <v>0.12673545549897303</v>
       </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>7</v>
-      </c>
-      <c r="N138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3985</v>
       </c>
@@ -35122,7 +35217,7 @@
         <v>0.49180551726049443</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3985</v>
       </c>
@@ -35145,7 +35240,7 @@
         <v>5.0071011542958566E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3987</v>
       </c>
@@ -35168,7 +35263,7 @@
         <v>0.2887439638846182</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3993</v>
       </c>
@@ -35191,7 +35286,7 @@
         <v>0.23560591554732832</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4002</v>
       </c>
@@ -35214,7 +35309,7 @@
         <v>0.15743641968102867</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>4005</v>
       </c>
@@ -35237,7 +35332,7 @@
         <v>9.7440104791522361E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>4008</v>
       </c>
@@ -35260,7 +35355,7 @@
         <v>0.35974187085333387</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4010</v>
       </c>
@@ -35283,7 +35378,7 @@
         <v>0.41283235019750458</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4020</v>
       </c>
@@ -35306,7 +35401,7 @@
         <v>0.23937588502036744</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4072</v>
       </c>
@@ -35328,17 +35423,8 @@
       <c r="G148">
         <v>3.8090864616805685E-2</v>
       </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="M148">
-        <v>1</v>
-      </c>
-      <c r="N148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4120</v>
       </c>
@@ -35360,17 +35446,8 @@
       <c r="G149">
         <v>7.4467520253655078E-2</v>
       </c>
-      <c r="L149">
-        <v>1</v>
-      </c>
-      <c r="M149">
-        <v>7</v>
-      </c>
-      <c r="N149">
-        <v>0.1429</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4141</v>
       </c>
@@ -35393,7 +35470,7 @@
         <v>8.212524667073641E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4149</v>
       </c>
@@ -35416,7 +35493,7 @@
         <v>4.5780464330940795E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4167</v>
       </c>
@@ -35439,7 +35516,7 @@
         <v>5.2172644930485082E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4173</v>
       </c>
@@ -35462,7 +35539,7 @@
         <v>8.8281904698000541E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4176</v>
       </c>
@@ -35485,7 +35562,7 @@
         <v>0.10511898515358373</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4189</v>
       </c>
@@ -35508,7 +35585,7 @@
         <v>0.20181028926276509</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4293</v>
       </c>
@@ -35530,17 +35607,8 @@
       <c r="G156">
         <v>4.2269109605610297E-2</v>
       </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="M156">
-        <v>3</v>
-      </c>
-      <c r="N156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4297</v>
       </c>
@@ -35563,7 +35631,7 @@
         <v>0.1410860649429532</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4299</v>
       </c>
@@ -35586,7 +35654,7 @@
         <v>0.15960977881999283</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4327</v>
       </c>
@@ -35608,17 +35676,8 @@
       <c r="G159">
         <v>0.37256200335972339</v>
       </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="M159">
-        <v>1</v>
-      </c>
-      <c r="N159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4356</v>
       </c>
@@ -35640,17 +35699,8 @@
       <c r="G160">
         <v>0.3504210655114583</v>
       </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="M160">
-        <v>3</v>
-      </c>
-      <c r="N160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4357</v>
       </c>
@@ -35673,7 +35723,7 @@
         <v>0.22521390068747874</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4359</v>
       </c>
@@ -35696,7 +35746,7 @@
         <v>0.20605351915738751</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4424</v>
       </c>
@@ -35718,17 +35768,8 @@
       <c r="G163">
         <v>4.7195485302620764E-2</v>
       </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-      <c r="M163">
-        <v>1</v>
-      </c>
-      <c r="N163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4792</v>
       </c>
@@ -35750,17 +35791,8 @@
       <c r="G164">
         <v>0.30297650075028953</v>
       </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="M164">
-        <v>1</v>
-      </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4883</v>
       </c>
@@ -35782,17 +35814,8 @@
       <c r="G165">
         <v>0.25235379928945834</v>
       </c>
-      <c r="L165">
-        <v>1</v>
-      </c>
-      <c r="M165">
-        <v>9</v>
-      </c>
-      <c r="N165">
-        <v>0.1111</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>4891</v>
       </c>
@@ -35815,7 +35838,7 @@
         <v>0.14271893719741977</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4904</v>
       </c>
@@ -35838,7 +35861,7 @@
         <v>6.5352098404876172E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4914</v>
       </c>
@@ -35861,7 +35884,7 @@
         <v>0.32047974754154307</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4919</v>
       </c>
@@ -35884,7 +35907,7 @@
         <v>0.12458413373728831</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>4929</v>
       </c>
@@ -35907,7 +35930,7 @@
         <v>0.78398176360300087</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>4933</v>
       </c>
@@ -35930,7 +35953,7 @@
         <v>0.37283655000913718</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4936</v>
       </c>
@@ -35953,7 +35976,7 @@
         <v>0.14930582720220686</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>4944</v>
       </c>
@@ -35975,17 +35998,8 @@
       <c r="G173">
         <v>0.11669269260536416</v>
       </c>
-      <c r="L173">
-        <v>2</v>
-      </c>
-      <c r="M173">
-        <v>3</v>
-      </c>
-      <c r="N173">
-        <v>0.66669999999999996</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>4946</v>
       </c>
@@ -36008,7 +36022,7 @@
         <v>0.27464114761430597</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>4955</v>
       </c>
@@ -36031,7 +36045,7 @@
         <v>0.23483937417702752</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>4964</v>
       </c>

--- a/tests_excel.xlsx
+++ b/tests_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danicagarcia/Documents/GitHub/Plate-Character-Recognition-with-Canny-Edge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86CC921-7536-E44B-B36A-DAE1714968F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8783C0B-648D-374A-9AE5-7D2BB1F2BBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="5" xr2:uid="{863AE985-0E03-41B7-9EE9-6FF87D3C1062}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22200" windowHeight="15720" activeTab="4" xr2:uid="{863AE985-0E03-41B7-9EE9-6FF87D3C1062}"/>
   </bookViews>
   <sheets>
     <sheet name="test4k-60-control" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="3574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="3575">
   <si>
     <t>frame_nmr</t>
   </si>
@@ -10804,6 +10804,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average </t>
   </si>
 </sst>
 </file>
@@ -19139,10 +19142,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D54ED4-0B50-4008-92DB-CF15AE5DB65E}">
-  <dimension ref="A1:N519"/>
+  <dimension ref="A1:P519"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19163,7 +19166,7 @@
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19206,8 +19209,11 @@
       <c r="N1" t="s">
         <v>3570</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>595</v>
       </c>
@@ -19250,8 +19256,12 @@
         <f>9/18</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <f>AVERAGE(N2:N40)</f>
+        <v>0.29408754578754576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>599</v>
       </c>
@@ -19291,7 +19301,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>601</v>
       </c>
@@ -19321,19 +19331,16 @@
         <v>0.50791061604750387</v>
       </c>
       <c r="L4">
-        <f>COUNTIF(F27:F62, "NCD7827")</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <f>COUNTIF(F27:F90,"*")</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N4">
-        <f>13/64</f>
-        <v>0.203125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.42420000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>603</v>
       </c>
@@ -19362,8 +19369,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.39778417890798901</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>0.28570000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>613</v>
       </c>
@@ -19392,8 +19408,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>5.955325872655675E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>614</v>
       </c>
@@ -19422,8 +19447,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.17148833577825692</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>623</v>
       </c>
@@ -19452,8 +19486,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.14877698330929912</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>625</v>
       </c>
@@ -19482,8 +19525,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.18194527576770697</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>31</v>
+      </c>
+      <c r="N9">
+        <v>9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>626</v>
       </c>
@@ -19512,8 +19564,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>4.4422006871919273E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>0.69230000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>628</v>
       </c>
@@ -19542,8 +19603,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.52790481700732017</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>629</v>
       </c>
@@ -19572,8 +19642,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.35536601692878106</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>630</v>
       </c>
@@ -19602,8 +19681,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.53399058993214543</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>632</v>
       </c>
@@ -19632,8 +19720,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.24541671046524546</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>59</v>
+      </c>
+      <c r="N14">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>633</v>
       </c>
@@ -19662,8 +19759,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.31297495695666222</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>25</v>
+      </c>
+      <c r="N15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>634</v>
       </c>
@@ -19692,8 +19798,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.4667334750380277</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>636</v>
       </c>
@@ -19722,8 +19837,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>4.8256277500304482E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>638</v>
       </c>
@@ -19752,8 +19876,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.84828475690885041</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>22</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>641</v>
       </c>
@@ -19782,8 +19915,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.58454161921217485</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0.95650000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1045</v>
       </c>
@@ -19812,8 +19954,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.43316128260841785</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>22</v>
+      </c>
+      <c r="M20">
+        <v>23</v>
+      </c>
+      <c r="N20">
+        <v>0.42859999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1061</v>
       </c>
@@ -19842,8 +19993,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.34014722242392464</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1065</v>
       </c>
@@ -19872,8 +20032,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.75711442588696076</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1074</v>
       </c>
@@ -19902,8 +20071,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.55569367186078644</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1076</v>
       </c>
@@ -19932,8 +20110,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.60823297289604117</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1078</v>
       </c>
@@ -19962,8 +20149,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>5.1719909533541407E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1080</v>
       </c>
@@ -19992,8 +20188,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.25015365630606046</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1259</v>
       </c>
@@ -20022,8 +20227,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.62376031198211512</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1261</v>
       </c>
@@ -20052,8 +20266,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.34037856929874916</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>0.66669999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1263</v>
       </c>
@@ -20082,8 +20305,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.59325178003012391</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>0.28570000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1264</v>
       </c>
@@ -20112,8 +20344,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.4718205980553668</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>12</v>
+      </c>
+      <c r="M30">
+        <v>22</v>
+      </c>
+      <c r="N30">
+        <v>0.54549999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1268</v>
       </c>
@@ -20142,8 +20383,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.43766750392809639</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>39</v>
+      </c>
+      <c r="N31">
+        <v>0.82050000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1269</v>
       </c>
@@ -20172,8 +20422,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.34642615392972104</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7</v>
+      </c>
+      <c r="N32">
+        <v>0.1429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1271</v>
       </c>
@@ -20202,8 +20461,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.38722219509848493</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>12</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1274</v>
       </c>
@@ -20232,8 +20500,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.16349560009800237</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
+      <c r="N34">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1275</v>
       </c>
@@ -20262,8 +20539,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.47216057999357897</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1276</v>
       </c>
@@ -20292,8 +20578,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.58289468200681305</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <v>0.71430000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1278</v>
       </c>
@@ -20322,8 +20617,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.21641831707974593</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1281</v>
       </c>
@@ -20352,8 +20656,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.62012283685440484</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>7</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1282</v>
       </c>
@@ -20382,8 +20695,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.11883873617735871</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>32</v>
+      </c>
+      <c r="M39">
+        <v>35</v>
+      </c>
+      <c r="N39">
+        <v>0.9143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1286</v>
       </c>
@@ -20412,8 +20734,17 @@
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.5981944452243918</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1287</v>
       </c>
@@ -20443,7 +20774,7 @@
         <v>0.45359272093142827</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1292</v>
       </c>
@@ -20466,7 +20797,7 @@
         <v>0.54084908383836938</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1293</v>
       </c>
@@ -20489,7 +20820,7 @@
         <v>0.21826654924740455</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1295</v>
       </c>
@@ -20512,7 +20843,7 @@
         <v>0.33015843001488404</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1296</v>
       </c>
@@ -20535,7 +20866,7 @@
         <v>0.47064865519661475</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1297</v>
       </c>
@@ -20558,7 +20889,7 @@
         <v>0.78829908232035828</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1298</v>
       </c>
@@ -20581,7 +20912,7 @@
         <v>0.34836976181552159</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1299</v>
       </c>
@@ -31445,7 +31776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3682F487-05A2-43E5-AC32-5E94BDAFBF3D}">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="86" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>

--- a/tests_excel.xlsx
+++ b/tests_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danicagarcia/Documents/GitHub/Plate-Character-Recognition-with-Canny-Edge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8783C0B-648D-374A-9AE5-7D2BB1F2BBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1272428-BD57-394B-9A0B-21ED11A9BAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22200" windowHeight="15720" activeTab="4" xr2:uid="{863AE985-0E03-41B7-9EE9-6FF87D3C1062}"/>
   </bookViews>
@@ -11191,6 +11191,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FA65A0B2-A712-47A1-BF35-5D99588D5F6F}" name="Table_test4k_60_control_updated" displayName="Table_test4k_60_control_updated" ref="A1:J519" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:J519" xr:uid="{FA65A0B2-A712-47A1-BF35-5D99588D5F6F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J519">
+    <sortCondition ref="I1:I519"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{283A1B1D-9B3F-441E-859D-7F7FF6A57BAD}" uniqueName="1" name="frame_nmr" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{A523886F-702B-4600-BA3D-2F8547DA1D22}" uniqueName="2" name="car_id" queryTableFieldId="2"/>
@@ -19144,8 +19147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D54ED4-0B50-4008-92DB-CF15AE5DB65E}">
   <dimension ref="A1:P519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19244,7 +19247,7 @@
       </c>
       <c r="K2">
         <f>AVERAGE(J2:J41)</f>
-        <v>0.38746982207337616</v>
+        <v>0.38746982207337605</v>
       </c>
       <c r="L2">
         <v>9</v>
@@ -19257,8 +19260,8 @@
         <v>0.5</v>
       </c>
       <c r="P2">
-        <f>AVERAGE(N2:N40)</f>
-        <v>0.29408754578754576</v>
+        <f>AVERAGE(N2:N41)</f>
+        <v>0.28673535714285714</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -19498,32 +19501,32 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B9">
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>878</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="E9">
-        <v>0.39896705746650696</v>
+        <v>0.4861302375793457</v>
       </c>
       <c r="F9" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="G9">
-        <v>0.26497565797771078</v>
+        <v>0.64351673540868903</v>
       </c>
       <c r="I9">
-        <v>1477</v>
+        <v>1430</v>
       </c>
       <c r="J9">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.18194527576770697</v>
+        <v>0.52790481700732017</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -19537,32 +19540,32 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B10">
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="D10" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="E10">
-        <v>0.37967178225517273</v>
+        <v>0.37088993191719055</v>
       </c>
       <c r="F10" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="G10">
-        <v>0.81069967527396203</v>
+        <v>0.5453618620191838</v>
       </c>
       <c r="I10">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="J10">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>4.4422006871919273E-2</v>
+        <v>0.53399058993214543</v>
       </c>
       <c r="L10">
         <v>9</v>
@@ -19576,32 +19579,32 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B11">
         <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>881</v>
       </c>
       <c r="D11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E11">
-        <v>0.4861302375793457</v>
+        <v>0.37967178225517273</v>
       </c>
       <c r="F11" t="s">
         <v>864</v>
       </c>
       <c r="G11">
-        <v>0.64351673540868903</v>
+        <v>0.81069967527396203</v>
       </c>
       <c r="I11">
-        <v>1430</v>
+        <v>1449</v>
       </c>
       <c r="J11">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.52790481700732017</v>
+        <v>4.4422006871919273E-2</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -19615,32 +19618,32 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B12">
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="D12" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E12">
-        <v>0.39248555898666382</v>
+        <v>0.39896705746650696</v>
       </c>
       <c r="F12" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="G12">
-        <v>0.30467435367903073</v>
+        <v>0.26497565797771078</v>
       </c>
       <c r="I12">
-        <v>1489</v>
+        <v>1477</v>
       </c>
       <c r="J12">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.35536601692878106</v>
+        <v>0.18194527576770697</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -19654,32 +19657,32 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B13">
         <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D13" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E13">
-        <v>0.37088993191719055</v>
+        <v>0.39248555898666382</v>
       </c>
       <c r="F13" t="s">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="G13">
-        <v>0.5453618620191838</v>
+        <v>0.30467435367903073</v>
       </c>
       <c r="I13">
-        <v>1443</v>
+        <v>1489</v>
       </c>
       <c r="J13">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.53399058993214543</v>
+        <v>0.35536601692878106</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -19771,32 +19774,32 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B16">
         <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D16" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E16">
-        <v>0.37025740742683411</v>
+        <v>0.42833566665649414</v>
       </c>
       <c r="F16" t="s">
         <v>864</v>
       </c>
       <c r="G16">
-        <v>0.76112632001892999</v>
+        <v>0.69960953493780165</v>
       </c>
       <c r="I16">
-        <v>1809</v>
+        <v>1750</v>
       </c>
       <c r="J16">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.4667334750380277</v>
+        <v>4.8256277500304482E-3</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -19810,32 +19813,32 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B17">
         <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E17">
-        <v>0.42833566665649414</v>
+        <v>0.37025740742683411</v>
       </c>
       <c r="F17" t="s">
         <v>864</v>
       </c>
       <c r="G17">
-        <v>0.69960953493780165</v>
+        <v>0.76112632001892999</v>
       </c>
       <c r="I17">
-        <v>1750</v>
+        <v>1809</v>
       </c>
       <c r="J17">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>4.8256277500304482E-3</v>
+        <v>0.4667334750380277</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -19849,32 +19852,32 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>638</v>
+        <v>1045</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>459</v>
       </c>
       <c r="C18" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="D18" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="E18">
-        <v>0.54020857810974121</v>
+        <v>0.25814458727836609</v>
       </c>
       <c r="F18" t="s">
-        <v>880</v>
+        <v>905</v>
       </c>
       <c r="G18">
-        <v>0.14710575988620736</v>
+        <v>0.21663701820712783</v>
       </c>
       <c r="I18">
-        <v>1924</v>
+        <v>1871</v>
       </c>
       <c r="J18">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.84828475690885041</v>
+        <v>0.43316128260841785</v>
       </c>
       <c r="L18">
         <v>11</v>
@@ -19888,32 +19891,32 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B19">
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D19" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E19">
-        <v>0.60965079069137573</v>
+        <v>0.54020857810974121</v>
       </c>
       <c r="F19" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="G19">
-        <v>0.25574635135578128</v>
+        <v>0.14710575988620736</v>
       </c>
       <c r="I19">
-        <v>1975</v>
+        <v>1924</v>
       </c>
       <c r="J19">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.58454161921217485</v>
+        <v>0.84828475690885041</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -19927,32 +19930,32 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1045</v>
+        <v>1074</v>
       </c>
       <c r="B20">
         <v>459</v>
       </c>
       <c r="C20" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="D20" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="E20">
-        <v>0.25814458727836609</v>
+        <v>0.42846947908401489</v>
       </c>
       <c r="F20" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="G20">
-        <v>0.21663701820712783</v>
+        <v>0.21856046108658539</v>
       </c>
       <c r="I20">
-        <v>1871</v>
+        <v>1934</v>
       </c>
       <c r="J20">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.43316128260841785</v>
+        <v>0.55569367186078644</v>
       </c>
       <c r="L20">
         <v>22</v>
@@ -19966,32 +19969,32 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1061</v>
+        <v>641</v>
       </c>
       <c r="B21">
-        <v>459</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D21" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E21">
-        <v>0.27476984262466431</v>
+        <v>0.60965079069137573</v>
       </c>
       <c r="F21" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G21">
-        <v>0.18859606164889225</v>
+        <v>0.25574635135578128</v>
       </c>
       <c r="I21">
-        <v>2039</v>
+        <v>1975</v>
       </c>
       <c r="J21">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.34014722242392464</v>
+        <v>0.58454161921217485</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -20005,32 +20008,32 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B22">
         <v>459</v>
       </c>
       <c r="C22" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D22" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E22">
-        <v>0.29764267802238464</v>
+        <v>0.27476984262466431</v>
       </c>
       <c r="F22" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="G22">
-        <v>0.19927452550710353</v>
+        <v>0.18859606164889225</v>
       </c>
       <c r="I22">
-        <v>2143</v>
+        <v>2039</v>
       </c>
       <c r="J22">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.75711442588696076</v>
+        <v>0.34014722242392464</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -20044,32 +20047,32 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="B23">
         <v>459</v>
       </c>
       <c r="C23" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="D23" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="E23">
-        <v>0.42846947908401489</v>
+        <v>0.25295957922935486</v>
       </c>
       <c r="F23" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="G23">
-        <v>0.21856046108658539</v>
+        <v>0.1151998336961059</v>
       </c>
       <c r="I23">
-        <v>1934</v>
+        <v>2055</v>
       </c>
       <c r="J23">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.55569367186078644</v>
+        <v>5.1719909533541407E-2</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -20122,32 +20125,32 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="B25">
         <v>459</v>
       </c>
       <c r="C25" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="D25" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="E25">
-        <v>0.25295957922935486</v>
+        <v>0.29764267802238464</v>
       </c>
       <c r="F25" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="G25">
-        <v>0.1151998336961059</v>
+        <v>0.19927452550710353</v>
       </c>
       <c r="I25">
-        <v>2055</v>
+        <v>2143</v>
       </c>
       <c r="J25">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>5.1719909533541407E-2</v>
+        <v>0.75711442588696076</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -20161,32 +20164,32 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1080</v>
+        <v>1263</v>
       </c>
       <c r="B26">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="C26" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="D26" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="E26">
-        <v>0.37078791856765747</v>
+        <v>0.26139986515045166</v>
       </c>
       <c r="F26" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="G26">
-        <v>0.53807755345347352</v>
+        <v>0.30088964487463754</v>
       </c>
       <c r="I26">
-        <v>2247</v>
+        <v>2168</v>
       </c>
       <c r="J26">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.25015365630606046</v>
+        <v>0.59325178003012391</v>
       </c>
       <c r="L26">
         <v>9</v>
@@ -20200,32 +20203,32 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1259</v>
+        <v>1268</v>
       </c>
       <c r="B27">
         <v>498</v>
       </c>
       <c r="C27" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="D27" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="E27">
-        <v>0.31578913331031799</v>
+        <v>0.25142937898635864</v>
       </c>
       <c r="F27" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="G27">
-        <v>0.25635323833094598</v>
+        <v>0.30861688973037932</v>
       </c>
       <c r="I27">
-        <v>2254</v>
+        <v>2244</v>
       </c>
       <c r="J27">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.62376031198211512</v>
+        <v>0.43766750392809639</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -20239,32 +20242,32 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1261</v>
+        <v>1080</v>
       </c>
       <c r="B28">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="C28" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="D28" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="E28">
-        <v>0.25660461187362671</v>
+        <v>0.37078791856765747</v>
       </c>
       <c r="F28" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="G28">
-        <v>0.2610584617543294</v>
+        <v>0.53807755345347352</v>
       </c>
       <c r="I28">
-        <v>2270</v>
+        <v>2247</v>
       </c>
       <c r="J28">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.34037856929874916</v>
+        <v>0.25015365630606046</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -20278,32 +20281,32 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B29">
         <v>498</v>
       </c>
       <c r="C29" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="D29" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="E29">
-        <v>0.26139986515045166</v>
+        <v>0.31578913331031799</v>
       </c>
       <c r="F29" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G29">
-        <v>0.30088964487463754</v>
+        <v>0.25635323833094598</v>
       </c>
       <c r="I29">
-        <v>2168</v>
+        <v>2254</v>
       </c>
       <c r="J29">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.59325178003012391</v>
+        <v>0.62376031198211512</v>
       </c>
       <c r="L29">
         <v>4</v>
@@ -20317,32 +20320,32 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B30">
         <v>498</v>
       </c>
       <c r="C30" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D30" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E30">
-        <v>0.27107527852058411</v>
+        <v>0.25660461187362671</v>
       </c>
       <c r="F30" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="G30">
-        <v>0.111779631174782</v>
+        <v>0.2610584617543294</v>
       </c>
       <c r="I30">
-        <v>2350</v>
+        <v>2270</v>
       </c>
       <c r="J30">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.4718205980553668</v>
+        <v>0.34037856929874916</v>
       </c>
       <c r="L30">
         <v>12</v>
@@ -20356,32 +20359,32 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B31">
         <v>498</v>
       </c>
       <c r="C31" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="D31" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E31">
-        <v>0.25142937898635864</v>
+        <v>0.35420441627502441</v>
       </c>
       <c r="F31" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="G31">
-        <v>0.30861688973037932</v>
+        <v>0.7879522351813143</v>
       </c>
       <c r="I31">
-        <v>2244</v>
+        <v>2346</v>
       </c>
       <c r="J31">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.43766750392809639</v>
+        <v>0.34642615392972104</v>
       </c>
       <c r="L31">
         <v>32</v>
@@ -20395,32 +20398,32 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="B32">
         <v>498</v>
       </c>
       <c r="C32" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="D32" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="E32">
-        <v>0.35420441627502441</v>
+        <v>0.27107527852058411</v>
       </c>
       <c r="F32" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="G32">
-        <v>0.7879522351813143</v>
+        <v>0.111779631174782</v>
       </c>
       <c r="I32">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="J32">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.34642615392972104</v>
+        <v>0.4718205980553668</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -20473,197 +20476,197 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="B34">
         <v>498</v>
       </c>
       <c r="C34" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="D34" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="E34">
-        <v>0.33797255158424377</v>
+        <v>0.36227831244468689</v>
       </c>
       <c r="F34" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="G34">
-        <v>0.44405406473671577</v>
+        <v>0.11668896295717843</v>
       </c>
       <c r="I34">
-        <v>2653</v>
+        <v>2401</v>
       </c>
       <c r="J34">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.16349560009800237</v>
+        <v>0.21641831707974593</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N34">
-        <v>0.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="B35">
         <v>498</v>
       </c>
       <c r="C35" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="D35" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="E35">
-        <v>0.40378081798553467</v>
+        <v>0.34829512238502502</v>
       </c>
       <c r="F35" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="G35">
-        <v>0.42686318872407625</v>
+        <v>0.36065491251886594</v>
       </c>
       <c r="I35">
-        <v>2681</v>
+        <v>2565</v>
       </c>
       <c r="J35">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.47216057999357897</v>
+        <v>0.62012283685440484</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B36">
         <v>498</v>
       </c>
       <c r="C36" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="D36" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="E36">
-        <v>0.41855287551879883</v>
+        <v>0.33797255158424377</v>
       </c>
       <c r="F36" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="G36">
-        <v>0.46136799590008304</v>
+        <v>0.44405406473671577</v>
       </c>
       <c r="I36">
-        <v>2696</v>
+        <v>2653</v>
       </c>
       <c r="J36">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.58289468200681305</v>
+        <v>0.16349560009800237</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>0.71430000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B37">
         <v>498</v>
       </c>
       <c r="C37" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="D37" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E37">
-        <v>0.36227831244468689</v>
+        <v>0.40378081798553467</v>
       </c>
       <c r="F37" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="G37">
-        <v>0.11668896295717843</v>
+        <v>0.42686318872407625</v>
       </c>
       <c r="I37">
-        <v>2401</v>
+        <v>2681</v>
       </c>
       <c r="J37">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.21641831707974593</v>
+        <v>0.47216057999357897</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.71430000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="B38">
         <v>498</v>
       </c>
       <c r="C38" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D38" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="E38">
-        <v>0.34829512238502502</v>
+        <v>0.41855287551879883</v>
       </c>
       <c r="F38" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G38">
-        <v>0.36065491251886594</v>
+        <v>0.46136799590008304</v>
       </c>
       <c r="I38">
-        <v>2565</v>
+        <v>2696</v>
       </c>
       <c r="J38">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
-        <v>0.62012283685440484</v>
+        <v>0.58289468200681305</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -20696,13 +20699,13 @@
         <v>0.11883873617735871</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N39">
-        <v>0.9143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -20735,13 +20738,13 @@
         <v>0.5981944452243918</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="N40">
-        <v>0.33329999999999999</v>
+        <v>0.9143</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -20772,6 +20775,15 @@
       <c r="J41">
         <f>AVERAGEIF(Table_test4k_60_control_updated[car_id],Table_test4k_60_control_updated[[#This Row],[carID]],Table_test4k_60_control_updated[license_number_score])</f>
         <v>0.45359272093142827</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
